--- a/program/results/result_v024_lin/analyze.xlsx
+++ b/program/results/result_v024_lin/analyze.xlsx
@@ -439,7 +439,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-30.29736952126598</v>
+        <v>20.71822824248287</v>
       </c>
     </row>
     <row r="2">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1331364753628302</v>
+        <v>0.0151497282705593</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>289.1284052257392</v>
+        <v>7.060316789026449</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7169507803849116</v>
+        <v>0.02884406291252462</v>
       </c>
     </row>
     <row r="5">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001360474924951616</v>
+        <v>0.006454719814796395</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-16.08760728907527</v>
+        <v>445.5309680916421</v>
       </c>
     </row>
     <row r="2">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1604106524974557</v>
+        <v>0.3259488202611809</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>290.4785184200431</v>
+        <v>157.9365483842102</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3420074357920344</v>
+        <v>0.4894582077730114</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002888789248935542</v>
+        <v>0.03063157894736834</v>
       </c>
     </row>
   </sheetData>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-301.8488866053311</v>
+        <v>27.16448043155758</v>
       </c>
     </row>
     <row r="2">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1891785170856322</v>
+        <v>0.01976058009142</v>
       </c>
     </row>
     <row r="3">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.951813205735</v>
+        <v>20.80222511154095</v>
       </c>
     </row>
     <row r="4">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3107236946928135</v>
+        <v>0.05720776827240215</v>
       </c>
     </row>
     <row r="5">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008711316501491595</v>
+        <v>0.0003418034330747721</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-291.6488304960382</v>
+        <v>67.89819536999795</v>
       </c>
     </row>
     <row r="2">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1926496437911033</v>
+        <v>0.06378091205289983</v>
       </c>
     </row>
     <row r="3">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188.2447892078941</v>
+        <v>99.97410294552307</v>
       </c>
     </row>
     <row r="4">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3404331835928032</v>
+        <v>0.1177956238132567</v>
       </c>
     </row>
     <row r="5">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001745503590423914</v>
+        <v>0.01104376819627606</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-142.334112018396</v>
+        <v>-151.6750144749564</v>
       </c>
     </row>
     <row r="2">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0869898767481012</v>
+        <v>0.0892210970392831</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.20151772646153</v>
+        <v>9.559742970410932</v>
       </c>
     </row>
     <row r="4">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-247.6031364086653</v>
+        <v>129.4534195153333</v>
       </c>
     </row>
     <row r="2">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1781173781954896</v>
+        <v>0.08513084666369768</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.4628766945904</v>
+        <v>115.3135948916103</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3223709094181566</v>
+        <v>0.159806100013095</v>
       </c>
     </row>
     <row r="5">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0008262087535061413</v>
+        <v>8.224430884351541e-05</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-303.1061750433655</v>
+        <v>38.81962488581357</v>
       </c>
     </row>
     <row r="2">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1913176759791688</v>
+        <v>0.03141394800834418</v>
       </c>
     </row>
     <row r="3">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.7941483837904</v>
+        <v>44.97246611181535</v>
       </c>
     </row>
     <row r="4">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3227610737449007</v>
+        <v>0.07316893921404866</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0001810034765434843</v>
+        <v>0.0003960093893127237</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-285.6915324359497</v>
+        <v>58.65934840448746</v>
       </c>
     </row>
     <row r="2">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1811407989525602</v>
+        <v>0.04688578138255983</v>
       </c>
     </row>
     <row r="3">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.8754582817257</v>
+        <v>73.78454447491936</v>
       </c>
     </row>
     <row r="4">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3115337019077274</v>
+        <v>0.1450457259409856</v>
       </c>
     </row>
     <row r="5">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001388598212791914</v>
+        <v>6.054200215332983e-05</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-255.7840344016292</v>
+        <v>116.5459225864631</v>
       </c>
     </row>
     <row r="2">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1766119991999801</v>
+        <v>0.07785515710954904</v>
       </c>
     </row>
     <row r="3">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>199.791312498094</v>
+        <v>98.33286899486288</v>
       </c>
     </row>
     <row r="4">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3223709094181566</v>
+        <v>0.1397464206510426</v>
       </c>
     </row>
     <row r="5">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002123371039844058</v>
+        <v>5.58996429318448e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-325.4271837608761</v>
+        <v>-4.871706928801844</v>
       </c>
     </row>
     <row r="2">
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2031162696476295</v>
+        <v>0.01710523753406692</v>
       </c>
     </row>
     <row r="3">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.7814226993049</v>
+        <v>57.27366129415462</v>
       </c>
     </row>
     <row r="4">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3116408953652116</v>
+        <v>0.1676183521866605</v>
       </c>
     </row>
     <row r="5">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01885826260614165</v>
+        <v>2.068106894848043e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-344.7668370312131</v>
+        <v>-39.62326025968093</v>
       </c>
     </row>
     <row r="2">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2134395916818478</v>
+        <v>0.03633581815783421</v>
       </c>
     </row>
     <row r="3">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.31678661004017</v>
+        <v>104.7369047656174</v>
       </c>
     </row>
     <row r="4">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3164720678847408</v>
+        <v>0.1702274607431584</v>
       </c>
     </row>
     <row r="5">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1044066205555255</v>
+        <v>9.023127181140289e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>-460.1387332889756</v>
+        <v>-161.6431439496592</v>
       </c>
     </row>
     <row r="2">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2848385124684309</v>
+        <v>0.111866831944498</v>
       </c>
     </row>
     <row r="3">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.7493531441913</v>
+        <v>112.3771401474258</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3770913631159136</v>
+        <v>0.2626439493350754</v>
       </c>
     </row>
     <row r="5">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003930961835659552</v>
+        <v>0.001117853769424859</v>
       </c>
     </row>
   </sheetData>
